--- a/Database/Combined Finalize logic tree/Subaru_Legacy Outback Impreza Forester_No heat from hvac.xlsx
+++ b/Database/Combined Finalize logic tree/Subaru_Legacy Outback Impreza Forester_No heat from hvac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize Logic trees 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Combined Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9622982F-D217-4AA8-B708-87451FFB5AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4939B60-5D5B-451A-9A2D-3CBCCD09957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9072" yWindow="1032" windowWidth="13476" windowHeight="12360" xr2:uid="{FC3D79CD-59CC-4FE0-A24F-C5CD4995B323}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FC3D79CD-59CC-4FE0-A24F-C5CD4995B323}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Node1</t>
   </si>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2717773-B016-4BBC-BA3D-AF587C170690}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,15 +634,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
@@ -650,9 +650,20 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
